--- a/Result/checksun_c.xlsx
+++ b/Result/checksun_c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV1"/>
+  <dimension ref="A1:AW45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,127 +551,8834 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>VPC_break</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum_12</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_break</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_%</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Full_Summary</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>122</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-1.71</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-7.16</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>30</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>106.85</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>旭源</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AP2" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>印刷標籤90.67%、套貼標機7.70%、其他1.56%、權利金收入0.07% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>旭源-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>其他平</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-7.72</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>23</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>旭源</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AP3" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>印刷標籤90.67%、套貼標機7.70%、其他1.56%、權利金收入0.07% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>旭源-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>其他平</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>91</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-3.00</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>17</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-11</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>82.47</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-6.88</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>旭源</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AP4" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>印刷標籤90.67%、套貼標機7.70%、其他1.56%、權利金收入0.07% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>旭源-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>其他平</t>
+        </is>
+      </c>
+      <c r="AU4" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>158</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-2.05</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>19</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-12</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-29.22</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>旭源</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL5" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AP5" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>印刷標籤90.67%、套貼標機7.70%、其他1.56%、權利金收入0.07% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>旭源-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>其他平</t>
+        </is>
+      </c>
+      <c r="AU5" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>91</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>-3.24</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-1.70</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-24</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>-170.89</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-41.59</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-3.11</v>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>旭源</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL6" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AP6" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>印刷標籤90.67%、套貼標機7.70%、其他1.56%、權利金收入0.07% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>旭源-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>其他平</t>
+        </is>
+      </c>
+      <c r="AU6" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-19</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>-62.16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-9.26</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-5.71</v>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>旭源</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AP7" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>印刷標籤90.67%、套貼標機7.70%、其他1.56%、權利金收入0.07% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>旭源-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>其他平</t>
+        </is>
+      </c>
+      <c r="AU7" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-0.34</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-17</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>-148.14</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-38.41</v>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>旭源</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AP8" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>印刷標籤90.67%、套貼標機7.70%、其他1.56%、權利金收入0.07% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>旭源-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>其他平</t>
+        </is>
+      </c>
+      <c r="AU8" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>-86.76000000000001</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>旭源</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL9" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AP9" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>印刷標籤90.67%、套貼標機7.70%、其他1.56%、權利金收入0.07% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>旭源-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>其他平</t>
+        </is>
+      </c>
+      <c r="AU9" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D10" t="n">
+        <v>76</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>-8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-6</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>74.18000000000001</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>旭源</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AP10" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>印刷標籤90.67%、套貼標機7.70%、其他1.56%、權利金收入0.07% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>旭源-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>其他平</t>
+        </is>
+      </c>
+      <c r="AU10" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D11" t="n">
+        <v>111</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>53.13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>72.27</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>旭源</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AP11" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>印刷標籤90.67%、套貼標機7.70%、其他1.56%、權利金收入0.07% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>旭源-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>其他平</t>
+        </is>
+      </c>
+      <c r="AU11" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>137</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-4.71</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>-40.31</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>77.05</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>旭源</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL12" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>18.09%</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="AP12" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>印刷標籤90.67%、套貼標機7.70%、其他1.56%、權利金收入0.07% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>旭源-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>其他平</t>
+        </is>
+      </c>
+      <c r="AU12" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)** 其他 - 其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2974.913</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H13" t="n">
+        <v>177</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>-1.67</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>54</v>
+      </c>
+      <c r="U13" t="n">
+        <v>36</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>32387537.82</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3928686.42</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>帆宣</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AP13" t="n">
+        <v>154.17</v>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AU13" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="D14" t="n">
+        <v>701.775</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>176</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>-1.70</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>37</v>
+      </c>
+      <c r="U14" t="n">
+        <v>17</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>-1020270.43</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-3186026.43</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>帆宣</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AP14" t="n">
+        <v>154.17</v>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AU14" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1670.971</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>179</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>26</v>
+      </c>
+      <c r="U15" t="n">
+        <v>14</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>21729003.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-3727465.43</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>帆宣</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AP15" t="n">
+        <v>154.17</v>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AU15" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1850.443</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-5.58</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>15</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>8214708.65</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-10091582.66</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>帆宣</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AP16" t="n">
+        <v>154.17</v>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AU16" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D17" t="n">
+        <v>566.8630000000001</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>175</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-10.26</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>-9</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-17</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>-14430140.71</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-14668155.49</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>帆宣</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AP17" t="n">
+        <v>154.17</v>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AU17" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="D18" t="n">
+        <v>662.593</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-12.74</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-14</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>-21845714.91</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-14727659.18</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>帆宣</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AP18" t="n">
+        <v>154.17</v>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AU18" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D19" t="n">
+        <v>585.484</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>175</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-11.85</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>-4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-17</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>-8807849.98</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-12948145.25</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>帆宣</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AP19" t="n">
+        <v>154.17</v>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AU19" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D20" t="n">
+        <v>798.377</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>174</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>-16.14</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>-6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-19</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>-13132495.91</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-13983219.07</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>帆宣</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AP20" t="n">
+        <v>154.17</v>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AU20" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D21" t="n">
+        <v>801.619</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-19.55</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-7</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>-22731735.41</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-14195899.86</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>帆宣</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AP21" t="n">
+        <v>154.17</v>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AU21" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>850.309</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>-20.06</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-13</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>-35515640.11</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-12061940.97</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>帆宣</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AP22" t="n">
+        <v>154.17</v>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AU22" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="D23" t="n">
+        <v>935.207</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H23" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>-15.29</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-20</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>-22371773.22</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-6198516.18</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>帆宣</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="AP23" t="n">
+        <v>154.17</v>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>帆宣-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AU23" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1846</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-3.45</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>-6.72</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>64</v>
+      </c>
+      <c r="U24" t="n">
+        <v>58</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>8943.709999999999</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>5714.52</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>富驊</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="AP24" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>電腦及伺服器機殼及零組件48.94%、電源供應器47.83%、其他3.23% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>富驊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AU24" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 機殼</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6238</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>38.96</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>-5.45</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-4.30</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>71</v>
+      </c>
+      <c r="U25" t="n">
+        <v>54</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>21932.12</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>4907.23</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>富驊</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AL25" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="AP25" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>電腦及伺服器機殼及零組件48.94%、電源供應器47.83%、其他3.23% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>富驊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AU25" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 機殼</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="D26" t="n">
+        <v>898</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-9.47</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>11</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-3</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
+        <v>3342.1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>651</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>富驊</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AL26" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="AP26" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>電腦及伺服器機殼及零組件48.94%、電源供應器47.83%、其他3.23% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>富驊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AU26" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 機殼</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D27" t="n">
+        <v>292</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>-0.62</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>-15.79</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>-23</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="b">
+        <v>0</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
+        <v>1003.48</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-21.77</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>47.09</v>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>富驊</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AL27" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="AP27" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>電腦及伺服器機殼及零組件48.94%、電源供應器47.83%、其他3.23% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>富驊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AU27" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 機殼</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>267</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H28" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>-14.18</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>11</v>
+      </c>
+      <c r="U28" t="n">
+        <v>28</v>
+      </c>
+      <c r="V28" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
+        <v>298.91</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>-278.08</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>富驊</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AL28" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="AP28" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>電腦及伺服器機殼及零組件48.94%、電源供應器47.83%、其他3.23% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>富驊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AU28" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 機殼</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="D29" t="n">
+        <v>308</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H29" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>-2.93</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>-1.85</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>-11.98</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>12</v>
+      </c>
+      <c r="U29" t="n">
+        <v>20</v>
+      </c>
+      <c r="V29" t="b">
+        <v>0</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB29" t="n">
+        <v>-595.29</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-422.33</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>富驊</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|暮星</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AL29" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="AP29" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>電腦及伺服器機殼及零組件48.94%、電源供應器47.83%、其他3.23% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>富驊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AU29" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 機殼</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D30" t="n">
+        <v>437</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H30" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>-5.40</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>15</v>
+      </c>
+      <c r="U30" t="n">
+        <v>12</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
+        <v>575.64</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-379.09</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>富驊</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AL30" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="AP30" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>電腦及伺服器機殼及零組件48.94%、電源供應器47.83%、其他3.23% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>富驊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AU30" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 機殼</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="D31" t="n">
+        <v>803</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H31" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>-6.43</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>19</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="b">
+        <v>0</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>-964.8099999999999</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-617.77</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>富驊</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AL31" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="AP31" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>電腦及伺服器機殼及零組件48.94%、電源供應器47.83%、其他3.23% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>富驊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AU31" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 機殼</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D32" t="n">
+        <v>935</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H32" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>-7.02</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>28</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-30</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
+        <v>2162.41</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-531.02</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>富驊</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AL32" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="AP32" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>電腦及伺服器機殼及零組件48.94%、電源供應器47.83%、其他3.23% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>富驊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AU32" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 機殼</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D33" t="n">
+        <v>159</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H33" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>-10.75</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>6</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-36</v>
+      </c>
+      <c r="V33" t="b">
+        <v>0</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="AB33" t="n">
+        <v>-903.98</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-1204.37</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>富驊</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AL33" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="AP33" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>電腦及伺服器機殼及零組件48.94%、電源供應器47.83%、其他3.23% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>富驊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AU33" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 機殼</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="D34" t="n">
+        <v>157</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H34" t="n">
+        <v>38.95</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>-1.41</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>-9.13</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>24</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-34</v>
+      </c>
+      <c r="V34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
+      <c r="AB34" t="n">
+        <v>-1864.81</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-1279.47</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>富驊</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AL34" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="AP34" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>電腦及伺服器機殼及零組件48.94%、電源供應器47.83%、其他3.23% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>富驊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AU34" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 機殼</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D35" t="n">
+        <v>15318</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H35" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>-3.92</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>41</v>
+      </c>
+      <c r="U35" t="n">
+        <v>11</v>
+      </c>
+      <c r="V35" t="b">
+        <v>0</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AB35" t="n">
+        <v>42783.1</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>10201.12</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>昇銳</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AL35" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>34.83%</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="AP35" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>昇銳-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AU35" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>-6.35</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3832</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H36" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-6.04</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>-2.70</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>-2.99</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>34</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="b">
+        <v>0</v>
+      </c>
+      <c r="W36" t="b">
+        <v>0</v>
+      </c>
+      <c r="X36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AB36" t="n">
+        <v>9938.200000000001</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2055.63</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>昇銳</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|暮星</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AL36" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>34.83%</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="AP36" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>昇銳-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AU36" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10355</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H37" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>34</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-21</v>
+      </c>
+      <c r="V37" t="b">
+        <v>0</v>
+      </c>
+      <c r="W37" t="b">
+        <v>0</v>
+      </c>
+      <c r="X37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
+      </c>
+      <c r="AB37" t="n">
+        <v>41218.38</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>84.98</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>484.04</v>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>昇銳</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AL37" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>34.83%</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="AP37" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>昇銳-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AU37" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AV37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D38" t="n">
+        <v>21268</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>57.41</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H38" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>-2.99</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>45</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-26</v>
+      </c>
+      <c r="V38" t="b">
+        <v>0</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+      <c r="AB38" t="n">
+        <v>26158.12</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-10198.37</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>昇銳</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;建議關注買點&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;2&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AL38" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>34.83%</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="AP38" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>昇銳-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AU38" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7141</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H39" t="n">
+        <v>37.35</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>34</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-40</v>
+      </c>
+      <c r="V39" t="b">
+        <v>0</v>
+      </c>
+      <c r="W39" t="b">
+        <v>0</v>
+      </c>
+      <c r="X39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="AB39" t="n">
+        <v>-41978.73</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>-19287.49</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>昇銳</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AL39" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>34.83%</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="AP39" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>昇銳-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AU39" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10212</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H40" t="n">
+        <v>35.95</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-9.87</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>-3.54</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>32</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-16</v>
+      </c>
+      <c r="V40" t="b">
+        <v>0</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+      <c r="X40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>-16</t>
+        </is>
+      </c>
+      <c r="AB40" t="n">
+        <v>-77375.12</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>-13614.68</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>-4.68</v>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>昇銳</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AL40" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>34.83%</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="AP40" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>昇銳-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AU40" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4034</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H41" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>-1.34</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>-3.51</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>18.43</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>34</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V41" t="b">
+        <v>0</v>
+      </c>
+      <c r="W41" t="b">
+        <v>0</v>
+      </c>
+      <c r="X41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="AB41" t="n">
+        <v>-55746</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2325.43</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>-24.97</v>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>昇銳</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AL41" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>34.83%</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="AP41" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>昇銳-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AU41" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7253</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H42" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>-5.25</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>-2.57</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>67</v>
+      </c>
+      <c r="U42" t="n">
+        <v>49</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
+      </c>
+      <c r="W42" t="b">
+        <v>0</v>
+      </c>
+      <c r="X42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AB42" t="n">
+        <v>-48253.47</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>16843.29</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>昇銳</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AL42" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>34.83%</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="AP42" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>昇銳-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6610</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H43" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>-0.88</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>22.48</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>74</v>
+      </c>
+      <c r="U43" t="n">
+        <v>44</v>
+      </c>
+      <c r="V43" t="b">
+        <v>0</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+      <c r="X43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AB43" t="n">
+        <v>-22237.48</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>33117.48</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>昇銳</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AL43" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>34.83%</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="AP43" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>昇銳-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AU43" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="D44" t="n">
+        <v>18175</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>49.06</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H44" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>-3.74</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>50.17</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>50</v>
+      </c>
+      <c r="U44" t="n">
+        <v>39</v>
+      </c>
+      <c r="V44" t="b">
+        <v>0</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+      <c r="X44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AB44" t="n">
+        <v>13468.88</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>46956.22</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>昇銳</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AL44" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>34.83%</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="AP44" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>昇銳-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AU44" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14098</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>38.06</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H45" t="n">
+        <v>39</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>18.80</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>66</v>
+      </c>
+      <c r="U45" t="n">
+        <v>29</v>
+      </c>
+      <c r="V45" t="b">
+        <v>0</v>
+      </c>
+      <c r="W45" t="b">
+        <v>0</v>
+      </c>
+      <c r="X45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AB45" t="n">
+        <v>113175.93</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>55328.06</v>
+      </c>
+      <c r="AD45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>昇銳</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="AL45" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>34.83%</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="AP45" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+        </is>
+      </c>
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>昇銳-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AU45" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
         </is>
       </c>
     </row>

--- a/Result/checksun_c.xlsx
+++ b/Result/checksun_c.xlsx
@@ -683,7 +683,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.75</v>
+        <v>0.71</v>
       </c>
       <c r="D2" t="n">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="H2" t="n">
-        <v>14.25</v>
+        <v>14.35</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -715,37 +715,37 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>-5.66</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
@@ -777,20 +777,20 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>106.85</v>
+        <v>140.28</v>
       </c>
       <c r="AC2" t="n">
-        <v>18.25</v>
+        <v>42.66</v>
       </c>
       <c r="AD2" t="b">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.85</v>
+        <v>2.29</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -809,12 +809,12 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -837,11 +837,11 @@
         </is>
       </c>
       <c r="AP2" t="n">
-        <v>65.53</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -885,77 +885,77 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.41</v>
+        <v>1.75</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>14.25</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1.75</v>
+        <v>0.7</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-7.72</t>
+          <t>-7.16</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="U3" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
@@ -970,20 +970,20 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>8.029999999999999</v>
+        <v>106.85</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.9</v>
+        <v>18.25</v>
       </c>
       <c r="AD3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.06</v>
+        <v>4.85</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="AP3" t="n">
-        <v>65.53</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
@@ -1069,7 +1069,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1078,65 +1078,65 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.71</v>
+        <v>-1.41</v>
       </c>
       <c r="D4" t="n">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.35</v>
+        <v>2.44</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-3.00</t>
+          <t>-7.72</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="U4" t="n">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
@@ -1163,20 +1163,20 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>82.47</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-6.88</v>
+        <v>-3.9</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.99</v>
+        <v>3.06</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1223,11 +1223,11 @@
         </is>
       </c>
       <c r="AP4" t="n">
-        <v>65.53</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
@@ -1262,7 +1262,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1271,22 +1271,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.46</v>
+        <v>0.71</v>
       </c>
       <c r="D5" t="n">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
@@ -1294,54 +1294,54 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-3.00</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>0.39</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
       <c r="T5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U5" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -1352,32 +1352,24 @@
       <c r="X5" t="b">
         <v>0</v>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2025-05-15</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>2025-06-17</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>20.23</v>
+        <v>82.47</v>
       </c>
       <c r="AC5" t="n">
-        <v>-29.22</v>
+        <v>-6.88</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.69</v>
+        <v>12.99</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1396,12 +1388,12 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1424,11 +1416,11 @@
         </is>
       </c>
       <c r="AP5" t="n">
-        <v>65.53</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1451,7 +1443,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
@@ -1463,7 +1455,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1472,77 +1464,77 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.5</v>
+        <v>1.46</v>
       </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>2.46</v>
+        <v>1.74</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-3.24</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-1.70</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>0.40</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
       <c r="T6" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="U6" t="n">
-        <v>-24</v>
+        <v>-12</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -1565,20 +1557,20 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-170.89</v>
+        <v>20.23</v>
       </c>
       <c r="AC6" t="n">
-        <v>-41.59</v>
+        <v>-29.22</v>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-3.11</v>
+        <v>1.69</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1597,12 +1589,12 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1625,11 +1617,11 @@
         </is>
       </c>
       <c r="AP6" t="n">
-        <v>65.53</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1664,7 +1656,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1673,65 +1665,65 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7</v>
+        <v>-2.5</v>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14.25</v>
+        <v>13.9</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>-3.24</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.70</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1740,10 +1732,10 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U7" t="n">
-        <v>-19</v>
+        <v>-24</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -1766,20 +1758,20 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-62.16</v>
+        <v>-170.89</v>
       </c>
       <c r="AC7" t="n">
-        <v>-9.26</v>
+        <v>-41.59</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-5.71</v>
+        <v>-3.11</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1798,12 +1790,12 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -1826,11 +1818,11 @@
         </is>
       </c>
       <c r="AP7" t="n">
-        <v>65.53</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -1865,7 +1857,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1874,22 +1866,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.35</v>
+        <v>0.7</v>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14.15</v>
+        <v>14.25</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
@@ -1897,37 +1889,37 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1937,14 +1929,14 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -1967,20 +1959,20 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-148.14</v>
+        <v>-62.16</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.96</v>
+        <v>-9.26</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-38.41</v>
+        <v>-5.71</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1999,7 +1991,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2027,11 +2019,11 @@
         </is>
       </c>
       <c r="AP8" t="n">
-        <v>65.53</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -2066,7 +2058,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2075,60 +2067,60 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>14.2</v>
+        <v>14.15</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.35</v>
+        <v>1.39</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2138,14 +2130,14 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>-3</v>
+        <v>-17</v>
       </c>
       <c r="V9" t="b">
         <v>0</v>
@@ -2168,20 +2160,20 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-86.76000000000001</v>
+        <v>-148.14</v>
       </c>
       <c r="AC9" t="n">
-        <v>41.99</v>
+        <v>3.96</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-3.07</v>
+        <v>-38.41</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2200,7 +2192,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2228,11 +2220,11 @@
         </is>
       </c>
       <c r="AP9" t="n">
-        <v>65.53</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2255,7 +2247,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
@@ -2267,7 +2259,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2276,15 +2268,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -2295,58 +2287,58 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>0.35</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>15.12</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="U10" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
@@ -2369,20 +2361,20 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>81.81</v>
+        <v>-86.76000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>74.18000000000001</v>
+        <v>41.99</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1</v>
+        <v>-3.07</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2401,7 +2393,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2429,11 +2421,11 @@
         </is>
       </c>
       <c r="AP10" t="n">
-        <v>65.53</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -2468,7 +2460,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2477,77 +2469,77 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.54</v>
+        <v>0.35</v>
       </c>
       <c r="D11" t="n">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>14.15</v>
+        <v>14.2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>14.28</t>
+          <t>15.12</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="U11" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -2570,20 +2562,20 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>53.13</v>
+        <v>81.81</v>
       </c>
       <c r="AC11" t="n">
-        <v>72.27</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.26</v>
+        <v>0.1</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2602,7 +2594,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2630,11 +2622,11 @@
         </is>
       </c>
       <c r="AP11" t="n">
-        <v>65.53</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
@@ -2669,7 +2661,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2678,77 +2670,77 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="D12" t="n">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>13.8</v>
+        <v>14.15</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>3.16</v>
+        <v>1.39</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>92</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-4.71</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="U12" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -2771,20 +2763,20 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-40.31</v>
+        <v>53.13</v>
       </c>
       <c r="AC12" t="n">
-        <v>77.05</v>
+        <v>72.27</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-1.52</v>
+        <v>-0.26</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2803,12 +2795,12 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -2831,11 +2823,11 @@
         </is>
       </c>
       <c r="AP12" t="n">
-        <v>65.53</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>787</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -2870,31 +2862,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5600000000000001</v>
+        <v>3.53</v>
       </c>
       <c r="D13" t="n">
-        <v>2974.913</v>
+        <v>2971</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>37.10</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>177</v>
+        <v>897</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
@@ -2902,54 +2894,54 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>15.80</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>50.11</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>50.40</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -2960,96 +2952,104 @@
       <c r="X13" t="b">
         <v>0</v>
       </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>32387537.82</v>
+        <v>-337608.05</v>
       </c>
       <c r="AC13" t="n">
-        <v>3928686.42</v>
+        <v>-197214.96</v>
       </c>
       <c r="AD13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.24</v>
+        <v>-0.71</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AL13" t="n">
-        <v>65.58</v>
+        <v>30.02</v>
       </c>
       <c r="AM13" t="n">
-        <v>16.25</v>
+        <v>32.13</v>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="AP13" t="n">
-        <v>154.17</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>35790</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+          <t>商品銷售98.39%、加工業務1.57%、佣金0.05% (2024年)</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>旺矽-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AU13" t="n">
-        <v>64.11</v>
+        <v>110.93</v>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
@@ -3058,93 +3058,93 @@
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備** LED照明產業 - 生產製程、檢測設備及原物料</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.68</v>
+        <v>-1.56</v>
       </c>
       <c r="D14" t="n">
-        <v>701.775</v>
+        <v>3229</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>40.32</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>176</v>
+        <v>867</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0.5600000000000001</v>
+        <v>3.34</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-1.70</t>
+          <t>-2.99</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-2.50</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>15.78</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>50.97</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>50.47</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -3155,386 +3155,402 @@
       <c r="X14" t="b">
         <v>0</v>
       </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-1020270.43</v>
+        <v>-637308.76</v>
       </c>
       <c r="AC14" t="n">
-        <v>-3186026.43</v>
+        <v>-162116.69</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.68</v>
+        <v>-2.93</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AL14" t="n">
-        <v>65.58</v>
+        <v>30.02</v>
       </c>
       <c r="AM14" t="n">
-        <v>16.25</v>
+        <v>32.13</v>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="AP14" t="n">
-        <v>154.17</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>35790</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+          <t>商品銷售98.39%、加工業務1.57%、佣金0.05% (2024年)</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>旺矽-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AU14" t="n">
-        <v>64.11</v>
+        <v>110.93</v>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備** LED照明產業 - 生產製程、檢測設備及原物料</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.41</v>
+        <v>-1.34</v>
       </c>
       <c r="D15" t="n">
-        <v>1670.971</v>
+        <v>2973</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>37.12</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>179</v>
+        <v>881</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>-1.13</v>
+        <v>1.78</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>-2.27</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>15.45</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>54.38</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>50.34</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
       </c>
       <c r="W15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
       </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>21729003.5</v>
+        <v>-460263.02</v>
       </c>
       <c r="AC15" t="n">
-        <v>-3727465.43</v>
+        <v>-43318.67</v>
       </c>
       <c r="AD15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.83</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AL15" t="n">
-        <v>65.58</v>
+        <v>30.02</v>
       </c>
       <c r="AM15" t="n">
-        <v>16.25</v>
+        <v>32.13</v>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="AP15" t="n">
-        <v>154.17</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>35790</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+          <t>商品銷售98.39%、加工業務1.57%、佣金0.05% (2024年)</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>旺矽-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AU15" t="n">
-        <v>64.11</v>
+        <v>110.93</v>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備** LED照明產業 - 生產製程、檢測設備及原物料</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.85</v>
+        <v>-1.97</v>
       </c>
       <c r="D16" t="n">
-        <v>1850.443</v>
+        <v>2967</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>37.05</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>176.5</v>
+        <v>893</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-4.03</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>14.83</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>14.55</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>56.51</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>49.34</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="U16" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="V16" t="b">
         <v>0</v>
@@ -3545,96 +3561,104 @@
       <c r="X16" t="b">
         <v>0</v>
       </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>8214708.65</v>
+        <v>-210231.68</v>
       </c>
       <c r="AC16" t="n">
-        <v>-10091582.66</v>
+        <v>60917.42</v>
       </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.81</v>
+        <v>-4.45</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AL16" t="n">
-        <v>65.58</v>
+        <v>30.02</v>
       </c>
       <c r="AM16" t="n">
-        <v>16.25</v>
+        <v>32.13</v>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="AP16" t="n">
-        <v>154.17</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>35790</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+          <t>商品銷售98.39%、加工業務1.57%、佣金0.05% (2024年)</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>旺矽-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AU16" t="n">
-        <v>64.11</v>
+        <v>110.93</v>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
@@ -3643,93 +3667,93 @@
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備** LED照明產業 - 生產製程、檢測設備及原物料</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.87</v>
+        <v>1.89</v>
       </c>
       <c r="D17" t="n">
-        <v>566.8630000000001</v>
+        <v>4316</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>53.89</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>175</v>
+        <v>911</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>1.13</v>
+        <v>-1.56</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>13.94</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-10.26</t>
+          <t>20.30</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>57.19</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>47.54</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="U17" t="n">
-        <v>-17</v>
+        <v>-8</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -3740,191 +3764,199 @@
       <c r="X17" t="b">
         <v>0</v>
       </c>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>-14430140.71</v>
+        <v>160254.44</v>
       </c>
       <c r="AC17" t="n">
-        <v>-14668155.49</v>
+        <v>128704.69</v>
       </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AL17" t="n">
-        <v>65.58</v>
+        <v>30.02</v>
       </c>
       <c r="AM17" t="n">
-        <v>16.25</v>
+        <v>32.13</v>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="AP17" t="n">
-        <v>154.17</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>35790</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+          <t>商品銷售98.39%、加工業務1.57%、佣金0.05% (2024年)</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>旺矽-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AU17" t="n">
-        <v>64.11</v>
+        <v>110.93</v>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備** LED照明產業 - 生產製程、檢測設備及原物料</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.86</v>
+        <v>0.79</v>
       </c>
       <c r="D18" t="n">
-        <v>662.593</v>
+        <v>1541</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>19.24</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>173.5</v>
+        <v>894</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>1.98</v>
+        <v>0.33</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-12.74</t>
+          <t>22.75</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>55.40</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>45.13</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="U18" t="n">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -3935,96 +3967,104 @@
       <c r="X18" t="b">
         <v>0</v>
       </c>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-21845714.91</v>
+        <v>-29166.22</v>
       </c>
       <c r="AC18" t="n">
-        <v>-14727659.18</v>
+        <v>120817.25</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.48</v>
+        <v>-1.24</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AL18" t="n">
-        <v>65.58</v>
+        <v>30.02</v>
       </c>
       <c r="AM18" t="n">
-        <v>16.25</v>
+        <v>32.13</v>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="AP18" t="n">
-        <v>154.17</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>35790</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+          <t>商品銷售98.39%、加工業務1.57%、佣金0.05% (2024年)</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>旺矽-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AU18" t="n">
-        <v>64.11</v>
+        <v>110.93</v>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
@@ -4033,93 +4073,93 @@
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備** LED照明產業 - 生產製程、檢測設備及原物料</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.57</v>
+        <v>1.26</v>
       </c>
       <c r="D19" t="n">
-        <v>585.484</v>
+        <v>2480</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>30.97</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>175</v>
+        <v>887</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-11.85</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>54.03</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="U19" t="n">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -4130,191 +4170,199 @@
       <c r="X19" t="b">
         <v>0</v>
       </c>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-8807849.98</v>
+        <v>-20643.09</v>
       </c>
       <c r="AC19" t="n">
-        <v>-12948145.25</v>
+        <v>158313.12</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.32</v>
+        <v>-1.13</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AL19" t="n">
-        <v>65.58</v>
+        <v>30.02</v>
       </c>
       <c r="AM19" t="n">
-        <v>16.25</v>
+        <v>32.13</v>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="AP19" t="n">
-        <v>154.17</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>35790</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+          <t>商品銷售98.39%、加工業務1.57%、佣金0.05% (2024年)</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>旺矽-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AU19" t="n">
-        <v>64.11</v>
+        <v>110.93</v>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備** LED照明產業 - 生產製程、檢測設備及原物料</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.87</v>
+        <v>-0.79</v>
       </c>
       <c r="D20" t="n">
-        <v>798.377</v>
+        <v>3166</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>39.53</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>174</v>
+        <v>876</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>1.69</v>
+        <v>2.34</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>-2.39</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-16.14</t>
+          <t>31.53</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>52.21</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>39.70</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="U20" t="n">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="V20" t="b">
         <v>0</v>
@@ -4325,291 +4373,307 @@
       <c r="X20" t="b">
         <v>0</v>
       </c>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-13132495.91</v>
+        <v>-96818.05</v>
       </c>
       <c r="AC20" t="n">
-        <v>-13983219.07</v>
+        <v>203052.17</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.06</v>
+        <v>-1.48</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AL20" t="n">
-        <v>65.58</v>
+        <v>30.02</v>
       </c>
       <c r="AM20" t="n">
-        <v>16.25</v>
+        <v>32.13</v>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="AP20" t="n">
-        <v>154.17</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>35790</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+          <t>商品銷售98.39%、加工業務1.57%、佣金0.05% (2024年)</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>旺矽-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AU20" t="n">
-        <v>64.11</v>
+        <v>110.93</v>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備** LED照明產業 - 生產製程、檢測設備及原物料</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.17</v>
+        <v>0.46</v>
       </c>
       <c r="D21" t="n">
-        <v>801.619</v>
+        <v>2294</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>28.64</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>172.5</v>
+        <v>883</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>2.54</v>
+        <v>1.56</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-19.55</t>
+          <t>37.42</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>50.25</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>36.57</t>
         </is>
       </c>
       <c r="T21" t="n">
+        <v>6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>332768.08</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>278019.72</v>
+      </c>
+      <c r="AD21" t="b">
         <v>1</v>
       </c>
-      <c r="U21" t="n">
-        <v>-7</v>
-      </c>
-      <c r="V21" t="b">
-        <v>0</v>
-      </c>
-      <c r="W21" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="AB21" t="n">
-        <v>-22731735.41</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>-14195899.86</v>
-      </c>
-      <c r="AD21" t="b">
-        <v>0</v>
-      </c>
       <c r="AE21" t="n">
-        <v>-0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AL21" t="n">
-        <v>65.58</v>
+        <v>30.02</v>
       </c>
       <c r="AM21" t="n">
-        <v>16.25</v>
+        <v>32.13</v>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="AP21" t="n">
-        <v>154.17</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>35790</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+          <t>商品銷售98.39%、加工業務1.57%、佣金0.05% (2024年)</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>旺矽-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AU21" t="n">
-        <v>64.11</v>
+        <v>110.93</v>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
@@ -4618,93 +4682,93 @@
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備** LED照明產業 - 生產製程、檢測設備及原物料</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
       <c r="D22" t="n">
-        <v>850.309</v>
+        <v>5401</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>67.44</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>170.5</v>
+        <v>879</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>3.67</v>
+        <v>2.01</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-20.06</t>
+          <t>39.69</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>46.30</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>33.15</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="U22" t="n">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="V22" t="b">
         <v>0</v>
@@ -4715,191 +4779,199 @@
       <c r="X22" t="b">
         <v>0</v>
       </c>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-35515640.11</v>
+        <v>417400.49</v>
       </c>
       <c r="AC22" t="n">
-        <v>-12061940.97</v>
+        <v>264332.63</v>
       </c>
       <c r="AD22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>-1.94</v>
+        <v>0.58</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AL22" t="n">
-        <v>65.58</v>
+        <v>30.02</v>
       </c>
       <c r="AM22" t="n">
-        <v>16.25</v>
+        <v>32.13</v>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="AP22" t="n">
-        <v>154.17</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>35790</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+          <t>商品銷售98.39%、加工業務1.57%、佣金0.05% (2024年)</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>旺矽-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AU22" t="n">
-        <v>64.11</v>
+        <v>110.93</v>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備** LED照明產業 - 生產製程、檢測設備及原物料</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-2.03</v>
+        <v>1.09</v>
       </c>
       <c r="D23" t="n">
-        <v>935.207</v>
+        <v>1922</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>170.5</v>
+        <v>832</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>3.67</v>
+        <v>7.25</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-15.29</t>
+          <t>37.31</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="U23" t="n">
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="V23" t="b">
         <v>0</v>
@@ -4910,96 +4982,104 @@
       <c r="X23" t="b">
         <v>0</v>
       </c>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-22371773.22</v>
+        <v>234815.08</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6198516.18</v>
+        <v>226065.67</v>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>-2.61</v>
+        <v>0.04</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>帆宣</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>65.58</v>
+        <v>30.02</v>
       </c>
       <c r="AM23" t="n">
-        <v>16.25</v>
+        <v>32.13</v>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>57.39%</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="AP23" t="n">
-        <v>154.17</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>35790</t>
+          <t>84525</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
+          <t>商品銷售98.39%、加工業務1.57%、佣金0.05% (2024年)</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>帆宣-其他電子業-上市</t>
+          <t>旺矽-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AU23" t="n">
-        <v>64.11</v>
+        <v>110.93</v>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
@@ -5008,14 +5088,14 @@
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備** LED照明產業 - 生產製程、檢測設備及原物料</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5024,22 +5104,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-2.07</v>
+        <v>3.4</v>
       </c>
       <c r="D24" t="n">
-        <v>1846</v>
+        <v>1059</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
-        <v>40.45</v>
+        <v>41.8</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
@@ -5047,42 +5127,42 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-3.45</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-6.72</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -5091,10 +5171,10 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U24" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -5109,20 +5189,20 @@
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>8943.709999999999</v>
+        <v>8534.110000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>5714.52</v>
+        <v>6278.44</v>
       </c>
       <c r="AD24" t="b">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.57</v>
+        <v>0.36</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5141,24 +5221,24 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="AL24" t="n">
         <v>10.62</v>
       </c>
       <c r="AM24" t="n">
-        <v>19.64</v>
+        <v>20.29</v>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
@@ -5171,11 +5251,11 @@
         </is>
       </c>
       <c r="AP24" t="n">
-        <v>21.48</v>
+        <v>21.35</v>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -5210,7 +5290,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5219,77 +5299,77 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.59</v>
+        <v>-2.07</v>
       </c>
       <c r="D25" t="n">
-        <v>6238</v>
+        <v>1846</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>38.96</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>41.3</v>
+        <v>40.45</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-2.1</v>
+        <v>3.23</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-5.45</t>
+          <t>-3.45</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-4.30</t>
+          <t>-6.72</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U25" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="V25" t="b">
         <v>0</v>
@@ -5304,20 +5384,20 @@
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>21932.12</v>
+        <v>8943.709999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>4907.23</v>
+        <v>5714.52</v>
       </c>
       <c r="AD25" t="b">
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>3.47</v>
+        <v>0.57</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5336,24 +5416,24 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="AL25" t="n">
         <v>10.62</v>
       </c>
       <c r="AM25" t="n">
-        <v>19.64</v>
+        <v>20.29</v>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
@@ -5366,11 +5446,11 @@
         </is>
       </c>
       <c r="AP25" t="n">
-        <v>21.48</v>
+        <v>21.35</v>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
@@ -5405,7 +5485,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5414,77 +5494,77 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.23</v>
+        <v>0.59</v>
       </c>
       <c r="D26" t="n">
-        <v>898</v>
+        <v>6238</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>38.96</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>41.05</v>
+        <v>41.3</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-1.48</v>
+        <v>1.2</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>-5.45</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-9.47</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="U26" t="n">
-        <v>-3</v>
+        <v>54</v>
       </c>
       <c r="V26" t="b">
         <v>0</v>
@@ -5499,20 +5579,20 @@
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>3342.1</v>
+        <v>21932.12</v>
       </c>
       <c r="AC26" t="n">
-        <v>651</v>
+        <v>4907.23</v>
       </c>
       <c r="AD26" t="b">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>4.13</v>
+        <v>3.47</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5531,24 +5611,24 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="AL26" t="n">
         <v>10.62</v>
       </c>
       <c r="AM26" t="n">
-        <v>19.64</v>
+        <v>20.29</v>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
@@ -5561,11 +5641,11 @@
         </is>
       </c>
       <c r="AP26" t="n">
-        <v>21.48</v>
+        <v>21.35</v>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
@@ -5600,7 +5680,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5609,77 +5689,77 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.13</v>
+        <v>3.23</v>
       </c>
       <c r="D27" t="n">
-        <v>292</v>
+        <v>898</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>39.75</v>
+        <v>41.05</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-15.79</t>
+          <t>-9.47</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>-23</v>
+        <v>11</v>
       </c>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="V27" t="b">
         <v>0</v>
@@ -5694,20 +5774,20 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>1003.48</v>
+        <v>3342.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-21.77</v>
+        <v>651</v>
       </c>
       <c r="AD27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>47.09</v>
+        <v>4.13</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5726,24 +5806,24 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|晨星</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="AL27" t="n">
         <v>10.62</v>
       </c>
       <c r="AM27" t="n">
-        <v>19.64</v>
+        <v>20.29</v>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
@@ -5756,11 +5836,11 @@
         </is>
       </c>
       <c r="AP27" t="n">
-        <v>21.48</v>
+        <v>21.35</v>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -5783,7 +5863,7 @@
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
@@ -5795,7 +5875,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5804,77 +5884,77 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="D28" t="n">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
-        <v>39.7</v>
+        <v>39.75</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>1.85</v>
+        <v>4.9</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-14.18</t>
+          <t>-15.79</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>11</v>
+        <v>-23</v>
       </c>
       <c r="U28" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
@@ -5889,20 +5969,20 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>298.91</v>
+        <v>1003.48</v>
       </c>
       <c r="AC28" t="n">
-        <v>-278.08</v>
+        <v>-21.77</v>
       </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>2.07</v>
+        <v>47.09</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5921,7 +6001,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -5931,14 +6011,14 @@
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="AL28" t="n">
         <v>10.62</v>
       </c>
       <c r="AM28" t="n">
-        <v>19.64</v>
+        <v>20.29</v>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
@@ -5951,11 +6031,11 @@
         </is>
       </c>
       <c r="AP28" t="n">
-        <v>21.48</v>
+        <v>21.35</v>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -5990,7 +6070,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5999,77 +6079,77 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-3.09</v>
+        <v>1.26</v>
       </c>
       <c r="D29" t="n">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="H29" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>3.09</v>
+        <v>5.02</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-2.93</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-11.98</t>
+          <t>-14.18</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U29" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -6084,20 +6164,20 @@
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-595.29</v>
+        <v>298.91</v>
       </c>
       <c r="AC29" t="n">
-        <v>-422.33</v>
+        <v>-278.08</v>
       </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.41</v>
+        <v>2.07</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6116,24 +6196,24 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|暮星</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="AL29" t="n">
         <v>10.62</v>
       </c>
       <c r="AM29" t="n">
-        <v>19.64</v>
+        <v>20.29</v>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
@@ -6146,11 +6226,11 @@
         </is>
       </c>
       <c r="AP29" t="n">
-        <v>21.48</v>
+        <v>21.35</v>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -6185,7 +6265,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6194,77 +6274,77 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.62</v>
+        <v>-3.09</v>
       </c>
       <c r="D30" t="n">
-        <v>437</v>
+        <v>308</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.29</v>
+        <v>0.87</v>
       </c>
       <c r="H30" t="n">
-        <v>40.45</v>
+        <v>39.2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.22</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-2.93</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>12.21</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-5.40</t>
+          <t>-11.98</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U30" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="V30" t="b">
         <v>0</v>
@@ -6279,20 +6359,20 @@
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>575.64</v>
+        <v>-595.29</v>
       </c>
       <c r="AC30" t="n">
-        <v>-379.09</v>
+        <v>-422.33</v>
       </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>2.52</v>
+        <v>-0.41</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6311,24 +6391,24 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|暮星</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="AL30" t="n">
         <v>10.62</v>
       </c>
       <c r="AM30" t="n">
-        <v>19.64</v>
+        <v>20.29</v>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
@@ -6341,11 +6421,11 @@
         </is>
       </c>
       <c r="AP30" t="n">
-        <v>21.48</v>
+        <v>21.35</v>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
@@ -6368,7 +6448,7 @@
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
@@ -6380,7 +6460,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6389,60 +6469,60 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.63</v>
+        <v>0.62</v>
       </c>
       <c r="D31" t="n">
-        <v>803</v>
+        <v>437</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="H31" t="n">
-        <v>40.2</v>
+        <v>40.45</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>0.62</v>
+        <v>3.23</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-6.43</t>
+          <t>-5.40</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -6452,14 +6532,14 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -6474,20 +6554,20 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-964.8099999999999</v>
+        <v>575.64</v>
       </c>
       <c r="AC31" t="n">
-        <v>-617.77</v>
+        <v>-379.09</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.5600000000000001</v>
+        <v>2.52</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6506,24 +6586,24 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="AL31" t="n">
         <v>10.62</v>
       </c>
       <c r="AM31" t="n">
-        <v>19.64</v>
+        <v>20.29</v>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
@@ -6536,11 +6616,11 @@
         </is>
       </c>
       <c r="AP31" t="n">
-        <v>21.48</v>
+        <v>21.35</v>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -6575,7 +6655,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6584,77 +6664,77 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.64</v>
+        <v>-0.63</v>
       </c>
       <c r="D32" t="n">
-        <v>935</v>
+        <v>803</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>1.16</v>
       </c>
       <c r="H32" t="n">
-        <v>40.45</v>
+        <v>40.2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-7.02</t>
+          <t>-6.43</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U32" t="n">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="V32" t="b">
         <v>0</v>
@@ -6669,20 +6749,20 @@
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>2162.41</v>
+        <v>-964.8099999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>-531.02</v>
+        <v>-617.77</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>5.07</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6701,24 +6781,24 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="AL32" t="n">
         <v>10.62</v>
       </c>
       <c r="AM32" t="n">
-        <v>19.64</v>
+        <v>20.29</v>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
@@ -6731,11 +6811,11 @@
         </is>
       </c>
       <c r="AP32" t="n">
-        <v>21.48</v>
+        <v>21.35</v>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -6758,7 +6838,7 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr">
@@ -6770,7 +6850,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6779,77 +6859,77 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.14</v>
+        <v>2.64</v>
       </c>
       <c r="D33" t="n">
-        <v>159</v>
+        <v>935</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
-        <v>39.4</v>
+        <v>40.45</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>2.6</v>
+        <v>3.23</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>10.66</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-10.75</t>
+          <t>-7.02</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="U33" t="n">
-        <v>-36</v>
+        <v>-30</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
@@ -6864,20 +6944,20 @@
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-903.98</v>
+        <v>2162.41</v>
       </c>
       <c r="AC33" t="n">
-        <v>-1204.37</v>
+        <v>-531.02</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.25</v>
+        <v>5.07</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6896,24 +6976,24 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="AL33" t="n">
         <v>10.62</v>
       </c>
       <c r="AM33" t="n">
-        <v>19.64</v>
+        <v>20.29</v>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
@@ -6926,11 +7006,11 @@
         </is>
       </c>
       <c r="AP33" t="n">
-        <v>21.48</v>
+        <v>21.35</v>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
@@ -6965,7 +7045,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6974,77 +7054,77 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.76</v>
+        <v>1.14</v>
       </c>
       <c r="D34" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="H34" t="n">
-        <v>38.95</v>
+        <v>39.4</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>3.71</v>
+        <v>5.74</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-9.13</t>
+          <t>-10.75</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="U34" t="n">
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="V34" t="b">
         <v>0</v>
@@ -7059,20 +7139,20 @@
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>-1864.81</v>
+        <v>-903.98</v>
       </c>
       <c r="AC34" t="n">
-        <v>-1279.47</v>
+        <v>-1204.37</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.46</v>
+        <v>0.25</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -7091,24 +7171,24 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="AL34" t="n">
         <v>10.62</v>
       </c>
       <c r="AM34" t="n">
-        <v>19.64</v>
+        <v>20.29</v>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
@@ -7121,11 +7201,11 @@
         </is>
       </c>
       <c r="AP34" t="n">
-        <v>21.48</v>
+        <v>21.35</v>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
@@ -7160,31 +7240,31 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.21</v>
+        <v>1.59</v>
       </c>
       <c r="D35" t="n">
-        <v>15318</v>
+        <v>82.021</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>41.35</t>
+          <t>15.86</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="H35" t="n">
-        <v>38.3</v>
+        <v>77</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
@@ -7192,57 +7272,57 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>21.41</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-3.92</t>
+          <t>-19.53</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="U35" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="V35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" t="b">
         <v>0</v>
@@ -7254,92 +7334,90 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>42783.1</v>
+        <v>-281264.3</v>
       </c>
       <c r="AC35" t="n">
-        <v>10201.12</v>
+        <v>-875355.3100000001</v>
       </c>
       <c r="AD35" t="b">
         <v>1</v>
       </c>
       <c r="AE35" t="n">
-        <v>3.19</v>
+        <v>0.68</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>華廣</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AL35" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>18.33</v>
-      </c>
+        <v>7.88</v>
+      </c>
+      <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>37.42%</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="AP35" t="n">
-        <v>58.31</v>
+        <v>30.82</v>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>血糖儀及試片100.00% (2024年)</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AU35" t="n">
-        <v>16.91</v>
+        <v>30.81</v>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
@@ -7348,93 +7426,93 @@
       </c>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-6.35</v>
+        <v>-0.53</v>
       </c>
       <c r="D36" t="n">
-        <v>3832</v>
+        <v>83.583</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10.34</t>
+          <t>16.17</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="H36" t="n">
-        <v>36.4</v>
+        <v>75.8</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>4.96</v>
+        <v>1.56</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-6.04</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-2.70</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>20.83</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-2.99</t>
+          <t>-21.18</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="V36" t="b">
         <v>0</v>
@@ -7445,104 +7523,94 @@
       <c r="X36" t="b">
         <v>0</v>
       </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>9938.200000000001</v>
+        <v>-981190.71</v>
       </c>
       <c r="AC36" t="n">
-        <v>2055.63</v>
+        <v>-1023878.06</v>
       </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>3.83</v>
+        <v>0.04</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>華廣</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|暮星</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AL36" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>18.33</v>
-      </c>
+        <v>7.88</v>
+      </c>
+      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>37.42%</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="AP36" t="n">
-        <v>58.31</v>
+        <v>30.82</v>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>血糖儀及試片100.00% (2024年)</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AU36" t="n">
-        <v>16.91</v>
+        <v>30.81</v>
       </c>
       <c r="AV36" t="inlineStr">
         <is>
@@ -7551,93 +7619,93 @@
       </c>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9</v>
+        <v>-2.28</v>
       </c>
       <c r="D37" t="n">
-        <v>10355</v>
+        <v>125.511</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>27.95</t>
+          <t>24.28</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="H37" t="n">
-        <v>38.85</v>
+        <v>76.2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>-1.44</v>
+        <v>1.04</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-3.54</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>20.33</t>
+          <t>15.60</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>-19.90</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U37" t="n">
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -7648,104 +7716,94 @@
       <c r="X37" t="b">
         <v>0</v>
       </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>41218.38</v>
+        <v>-597916.01</v>
       </c>
       <c r="AC37" t="n">
-        <v>84.98</v>
+        <v>-1034549.9</v>
       </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>484.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>華廣</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三白兵</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AL37" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>18.33</v>
-      </c>
+        <v>7.88</v>
+      </c>
+      <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>37.42%</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="AP37" t="n">
-        <v>58.31</v>
+        <v>30.82</v>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>血糖儀及試片100.00% (2024年)</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AU37" t="n">
-        <v>16.91</v>
+        <v>30.81</v>
       </c>
       <c r="AV37" t="inlineStr">
         <is>
@@ -7754,93 +7812,93 @@
       </c>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.07</v>
+        <v>5.13</v>
       </c>
       <c r="D38" t="n">
-        <v>21268</v>
+        <v>268.597</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>57.41</t>
+          <t>51.95</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="H38" t="n">
-        <v>38.5</v>
+        <v>78</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-0.52</v>
+        <v>-1.3</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-2.99</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>15.85</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>-19.64</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="U38" t="n">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="V38" t="b">
         <v>0</v>
@@ -7851,104 +7909,94 @@
       <c r="X38" t="b">
         <v>0</v>
       </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>26158.12</v>
+        <v>331796.48</v>
       </c>
       <c r="AC38" t="n">
-        <v>-10198.37</v>
+        <v>-1143708.37</v>
       </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>3.56</v>
+        <v>1.29</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>華廣</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列,爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;建議關注買點&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;2&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;爆量上攻&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AL38" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>18.33</v>
-      </c>
+        <v>7.88</v>
+      </c>
+      <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>37.42%</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="AP38" t="n">
-        <v>58.31</v>
+        <v>30.82</v>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>血糖儀及試片100.00% (2024年)</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AU38" t="n">
-        <v>16.91</v>
+        <v>30.81</v>
       </c>
       <c r="AV38" t="inlineStr">
         <is>
@@ -7957,93 +8005,93 @@
       </c>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.91</v>
+        <v>0.27</v>
       </c>
       <c r="D39" t="n">
-        <v>7141</v>
+        <v>43.529</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>19.28</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="H39" t="n">
-        <v>37.35</v>
+        <v>74.2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>2.48</v>
+        <v>3.64</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>-24.73</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="U39" t="n">
-        <v>-40</v>
+        <v>-45</v>
       </c>
       <c r="V39" t="b">
         <v>0</v>
@@ -8054,104 +8102,94 @@
       <c r="X39" t="b">
         <v>0</v>
       </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>-41978.73</v>
+        <v>-1608883.19</v>
       </c>
       <c r="AC39" t="n">
-        <v>-19287.49</v>
+        <v>-1512584.58</v>
       </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>-1.18</v>
+        <v>-0.06</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>華廣</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AL39" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>18.33</v>
-      </c>
+        <v>7.88</v>
+      </c>
+      <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>37.42%</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="AP39" t="n">
-        <v>58.31</v>
+        <v>30.82</v>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>血糖儀及試片100.00% (2024年)</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AU39" t="n">
-        <v>16.91</v>
+        <v>30.81</v>
       </c>
       <c r="AV39" t="inlineStr">
         <is>
@@ -8160,93 +8198,93 @@
       </c>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-1.63</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>10212</v>
+        <v>54.669</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>27.57</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.88</v>
+        <v>1.15</v>
       </c>
       <c r="H40" t="n">
-        <v>35.95</v>
+        <v>74</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>6.14</v>
+        <v>3.9</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-9.87</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-3.54</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>14.62</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>17.43</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>-21.49</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="U40" t="n">
-        <v>-16</v>
+        <v>-44</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
@@ -8257,104 +8295,94 @@
       <c r="X40" t="b">
         <v>0</v>
       </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-44</t>
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>-77375.12</v>
+        <v>-2449314.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>-13614.68</v>
+        <v>-1488509.93</v>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>-4.68</v>
+        <v>-0.65</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>華廣</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;盤整震盪,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;觀望為宜&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;1&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;觀望&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AL40" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>18.33</v>
-      </c>
+        <v>7.88</v>
+      </c>
+      <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>37.42%</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="AP40" t="n">
-        <v>58.31</v>
+        <v>30.82</v>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>血糖儀及試片100.00% (2024年)</t>
         </is>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AU40" t="n">
-        <v>16.91</v>
+        <v>30.81</v>
       </c>
       <c r="AV40" t="inlineStr">
         <is>
@@ -8363,93 +8391,93 @@
       </c>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-1.48</v>
+        <v>-0.79</v>
       </c>
       <c r="D41" t="n">
-        <v>4034</v>
+        <v>75.754</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="H41" t="n">
-        <v>36.55</v>
+        <v>74</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>4.57</v>
+        <v>3.9</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>18.28</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>18.43</t>
+          <t>-16.82</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U41" t="n">
-        <v>-4</v>
+        <v>-24</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
@@ -8460,104 +8488,94 @@
       <c r="X41" t="b">
         <v>0</v>
       </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>-55746</v>
+        <v>-2784702.27</v>
       </c>
       <c r="AC41" t="n">
-        <v>2325.43</v>
+        <v>-1248308.76</v>
       </c>
       <c r="AD41" t="b">
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>-24.97</v>
+        <v>-1.23</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>華廣</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AL41" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>18.33</v>
-      </c>
+        <v>7.88</v>
+      </c>
+      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>37.42%</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="AP41" t="n">
-        <v>58.31</v>
+        <v>30.82</v>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>血糖儀及試片100.00% (2024年)</t>
         </is>
       </c>
       <c r="AS41" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AU41" t="n">
-        <v>16.91</v>
+        <v>30.81</v>
       </c>
       <c r="AV41" t="inlineStr">
         <is>
@@ -8566,93 +8584,93 @@
       </c>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-2.89</v>
+        <v>-0.27</v>
       </c>
       <c r="D42" t="n">
-        <v>7253</v>
+        <v>158.74</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>19.58</t>
+          <t>30.70</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>37.1</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-5.25</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>-3.29</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>20.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>15.61</t>
+          <t>15.72</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>28.57</t>
+          <t>-10.73</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="U42" t="n">
-        <v>49</v>
+        <v>-14</v>
       </c>
       <c r="V42" t="b">
         <v>0</v>
@@ -8663,104 +8681,94 @@
       <c r="X42" t="b">
         <v>0</v>
       </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-48253.47</v>
+        <v>-2998242.97</v>
       </c>
       <c r="AC42" t="n">
-        <v>16843.29</v>
+        <v>-864210.39</v>
       </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>-3.86</v>
+        <v>-2.47</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>華廣</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;衝高回落,多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AL42" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>18.33</v>
-      </c>
+        <v>7.88</v>
+      </c>
+      <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>37.42%</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="AP42" t="n">
-        <v>58.31</v>
+        <v>30.82</v>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>血糖儀及試片100.00% (2024年)</t>
         </is>
       </c>
       <c r="AS42" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AU42" t="n">
-        <v>16.91</v>
+        <v>30.81</v>
       </c>
       <c r="AV42" t="inlineStr">
         <is>
@@ -8769,93 +8777,93 @@
       </c>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.91</v>
+        <v>-3.25</v>
       </c>
       <c r="D43" t="n">
-        <v>6610</v>
+        <v>187.496</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>17.84</t>
+          <t>36.27</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="H43" t="n">
-        <v>38.2</v>
+        <v>74.8</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>0.26</v>
+        <v>2.86</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-4.13</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>22.48</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>14.76</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>40.05</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="U43" t="n">
-        <v>44</v>
+        <v>-8</v>
       </c>
       <c r="V43" t="b">
         <v>0</v>
@@ -8868,197 +8876,195 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-22237.48</v>
+        <v>-2553903.87</v>
       </c>
       <c r="AC43" t="n">
-        <v>33117.48</v>
+        <v>-330702.24</v>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>-1.67</v>
+        <v>-6.72</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>華廣</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;負向&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;|三隻烏鴉</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AL43" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>18.33</v>
-      </c>
+        <v>7.88</v>
+      </c>
+      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>37.42%</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="AP43" t="n">
-        <v>58.31</v>
+        <v>30.82</v>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>血糖儀及試片100.00% (2024年)</t>
         </is>
       </c>
       <c r="AS43" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AU43" t="n">
-        <v>16.91</v>
+        <v>30.81</v>
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-1.14</v>
+        <v>-2.15</v>
       </c>
       <c r="D44" t="n">
-        <v>18175</v>
+        <v>68.76600000000001</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>49.06</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="H44" t="n">
-        <v>38.55</v>
+        <v>77.3</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>-0.65</v>
+        <v>-0.39</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-3.74</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>21.66</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>15.52</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>50.17</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="U44" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="V44" t="b">
         <v>0</v>
@@ -9071,44 +9077,44 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>13468.88</v>
+        <v>-1566163.23</v>
       </c>
       <c r="AC44" t="n">
-        <v>46956.22</v>
+        <v>225098.17</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>-0.71</v>
+        <v>-7.96</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>華廣</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
@@ -9118,150 +9124,148 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AL44" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>18.33</v>
-      </c>
+        <v>7.88</v>
+      </c>
+      <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>37.42%</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="AP44" t="n">
-        <v>58.31</v>
+        <v>30.82</v>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="AR44" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>血糖儀及試片100.00% (2024年)</t>
         </is>
       </c>
       <c r="AS44" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AU44" t="n">
-        <v>16.91</v>
+        <v>30.81</v>
       </c>
       <c r="AV44" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.86</v>
+        <v>-1.26</v>
       </c>
       <c r="D45" t="n">
-        <v>14098</v>
+        <v>247.949</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>38.06</t>
+          <t>47.96</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-1.83</v>
+        <v>-2.6</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>82</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>10.23</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>18.80</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>59.24</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="U45" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V45" t="b">
         <v>0</v>
@@ -9274,102 +9278,100 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>113175.93</v>
+        <v>-1026969.52</v>
       </c>
       <c r="AC45" t="n">
-        <v>55328.06</v>
+        <v>672913.51</v>
       </c>
       <c r="AD45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>1.05</v>
+        <v>-2.53</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>華廣</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;中性&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
+          <t>&lt;b&gt;分類：&lt;/b&gt;多頭排列&lt;br&gt;&lt;b&gt;建議：&lt;/b&gt;&lt;br&gt;&lt;b&gt;評分：&lt;/b&gt;0&lt;br&gt;&lt;b&gt;K棒方向：&lt;/b&gt;正向&lt;br&gt;&lt;b&gt;多日K棒方向：&lt;/b&gt;&lt;br&gt;&lt;b&gt;K棒續強：&lt;/b&gt;&lt;br&gt;&lt;b&gt;多日K棒型態：&lt;/b&gt;</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AL45" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>18.33</v>
-      </c>
+        <v>7.88</v>
+      </c>
+      <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>37.42%</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="AP45" t="n">
-        <v>58.31</v>
+        <v>30.82</v>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>血糖儀及試片100.00% (2024年)</t>
         </is>
       </c>
       <c r="AS45" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AU45" t="n">
-        <v>16.91</v>
+        <v>30.81</v>
       </c>
       <c r="AV45" t="inlineStr">
         <is>
@@ -9378,7 +9380,7 @@
       </c>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
